--- a/biology/Médecine/Tumeur_bénigne/Tumeur_bénigne.xlsx
+++ b/biology/Médecine/Tumeur_bénigne/Tumeur_bénigne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tumeur_b%C3%A9nigne</t>
+          <t>Tumeur_bénigne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une tumeur bénigne est une tumeur sans gravité, c'est-à-dire ne pouvant donner lieu à des métastases et n'étant pas mortelle, par exemple une verrue. Néanmoins une telle tumeur peut évoluer vers une tumeur maligne, qui peut, elle, être fatale si elle n'est pas traitée.
 Une tumeur bénigne peut cependant être mortelle dans les cas où son environnement ne laisse pas suffisamment de place à son développement. Exemple : une tumeur bénigne au cerveau.
-Les tumeurs bénignes ont une origine probablement dysembryoplasique[1].
+Les tumeurs bénignes ont une origine probablement dysembryoplasique.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tumeur_b%C3%A9nigne</t>
+          <t>Tumeur_bénigne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Adénome
 Angiome
